--- a/tables/random_sd_PhenTempMammals.xlsx
+++ b/tables/random_sd_PhenTempMammals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Relation</t>
   </si>
@@ -26,40 +26,46 @@
     <t xml:space="preserve">Location.SD</t>
   </si>
   <si>
+    <t xml:space="preserve">GR&lt;-Pop_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.441021e-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.261729e-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.161400e-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR&lt;-Trait_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.047531e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trait_mean&lt;-det_Clim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.505846e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.766086e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.426837e-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">GR&lt;-det_Clim</t>
   </si>
   <si>
-    <t xml:space="preserve">0.000000e+00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GR&lt;-Pop_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.441021e-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.261729e-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.161400e-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GR&lt;-Trait_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.047531e-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trait_mean&lt;-det_Clim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.505846e-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.766086e-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.426837e-01</t>
+    <t xml:space="preserve">3.476596e-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.167545e-02</t>
   </si>
   <si>
     <t xml:space="preserve">Ind_GR&lt;-det_Clim</t>
@@ -461,10 +467,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
@@ -475,13 +481,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -495,16 +501,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
@@ -515,16 +521,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
@@ -535,16 +541,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
@@ -555,16 +561,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
